--- a/3/5/2/1/consumo - en pesos 2013 a 2021 - Mensual.xlsx
+++ b/3/5/2/1/consumo - en pesos 2013 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>Serie</t>
   </si>
@@ -353,6 +353,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -710,7 +713,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K103"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4069,6 +4072,41 @@
         <v>304.91</v>
       </c>
     </row>
+    <row r="104" spans="1:11">
+      <c r="A104" t="s">
+        <v>113</v>
+      </c>
+      <c r="B104">
+        <v>18.28</v>
+      </c>
+      <c r="C104">
+        <v>1550.59</v>
+      </c>
+      <c r="D104">
+        <v>22.71</v>
+      </c>
+      <c r="E104">
+        <v>620.62</v>
+      </c>
+      <c r="F104">
+        <v>6.9</v>
+      </c>
+      <c r="G104">
+        <v>211.86</v>
+      </c>
+      <c r="H104">
+        <v>10.72</v>
+      </c>
+      <c r="I104">
+        <v>386.52</v>
+      </c>
+      <c r="J104">
+        <v>26.06</v>
+      </c>
+      <c r="K104">
+        <v>331.59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/5/2/1/consumo - en pesos 2013 a 2021 - Mensual.xlsx
+++ b/3/5/2/1/consumo - en pesos 2013 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>Serie</t>
   </si>
@@ -356,6 +356,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -713,7 +716,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K104"/>
+  <dimension ref="A1:K105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4107,6 +4110,41 @@
         <v>331.59</v>
       </c>
     </row>
+    <row r="105" spans="1:11">
+      <c r="A105" t="s">
+        <v>114</v>
+      </c>
+      <c r="B105">
+        <v>18.02</v>
+      </c>
+      <c r="C105">
+        <v>1709.14</v>
+      </c>
+      <c r="D105">
+        <v>22.76</v>
+      </c>
+      <c r="E105">
+        <v>641.91</v>
+      </c>
+      <c r="F105">
+        <v>7.03</v>
+      </c>
+      <c r="G105">
+        <v>237.64</v>
+      </c>
+      <c r="H105">
+        <v>10.86</v>
+      </c>
+      <c r="I105">
+        <v>475.38</v>
+      </c>
+      <c r="J105">
+        <v>26.39</v>
+      </c>
+      <c r="K105">
+        <v>354.21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/5/2/1/consumo - en pesos 2013 a 2021 - Mensual.xlsx
+++ b/3/5/2/1/consumo - en pesos 2013 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <si>
     <t>Serie</t>
   </si>
@@ -359,6 +359,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -716,7 +719,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K105"/>
+  <dimension ref="A1:K106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4145,6 +4148,41 @@
         <v>354.21</v>
       </c>
     </row>
+    <row r="106" spans="1:11">
+      <c r="A106" t="s">
+        <v>115</v>
+      </c>
+      <c r="B106">
+        <v>19.34</v>
+      </c>
+      <c r="C106">
+        <v>1616.32</v>
+      </c>
+      <c r="D106">
+        <v>23.45</v>
+      </c>
+      <c r="E106">
+        <v>665.71</v>
+      </c>
+      <c r="F106">
+        <v>7.52</v>
+      </c>
+      <c r="G106">
+        <v>223.64</v>
+      </c>
+      <c r="H106">
+        <v>12.03</v>
+      </c>
+      <c r="I106">
+        <v>374.16</v>
+      </c>
+      <c r="J106">
+        <v>26.85</v>
+      </c>
+      <c r="K106">
+        <v>352.81</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/5/2/1/consumo - en pesos 2013 a 2021 - Mensual.xlsx
+++ b/3/5/2/1/consumo - en pesos 2013 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t>Serie</t>
   </si>
@@ -362,6 +362,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -719,7 +722,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K106"/>
+  <dimension ref="A1:K107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4183,6 +4186,41 @@
         <v>352.81</v>
       </c>
     </row>
+    <row r="107" spans="1:11">
+      <c r="A107" t="s">
+        <v>116</v>
+      </c>
+      <c r="B107">
+        <v>19.79</v>
+      </c>
+      <c r="C107">
+        <v>1704.72</v>
+      </c>
+      <c r="D107">
+        <v>23.49</v>
+      </c>
+      <c r="E107">
+        <v>708.74</v>
+      </c>
+      <c r="F107">
+        <v>7.57</v>
+      </c>
+      <c r="G107">
+        <v>259.22</v>
+      </c>
+      <c r="H107">
+        <v>13.32</v>
+      </c>
+      <c r="I107">
+        <v>364.24</v>
+      </c>
+      <c r="J107">
+        <v>27.58</v>
+      </c>
+      <c r="K107">
+        <v>372.52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
